--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_248.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_248.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -573,178 +580,190 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:00:25.480000', '0:00:32.760000'), ('0:01:14.800000', '0:01:21.060000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:01:34.800000', '0:01:46.960000'), ('0:00:40.820000', '0:00:43.620000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[('0:00:38.900000', '0:00:47.160000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:43.420000', '0:01:55.040000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -753,268 +772,274 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3968253968253968</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C', 'C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[('0:00:31.527551', '0:00:52.146870')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:48.170328', '0:00:59.292687')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.45</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74)]</t>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1454741379310345</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[(14.52, 59.64)]</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -1023,180 +1048,142 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.24, 13.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.300272, 18.887755)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
